--- a/database/file/副本匹兹堡睡眠质量指数（PSQI）.xlsx
+++ b/database/file/副本匹兹堡睡眠质量指数（PSQI）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f26b7379afd139a1/Doctor/项目/同济医院/样本示例/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f26b7379afd139a1/Doctoral/项目/agent-sit/database/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A8831AFF9CED7D0E8D674A979ACAD4EE75ABBB77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A8831AFF9CED7D0E8D674A979ACAD4EE75ABBB77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3097B0CF-C101-BA42-A4FC-EF3D5D8EA8F0}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1060" windowWidth="27320" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匹兹堡睡眠质量指数（PSQI）" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>new_id</t>
-  </si>
-  <si>
-    <t>朱佳琳</t>
   </si>
   <si>
     <t>H14063284</t>
@@ -322,12 +319,16 @@
   <si>
     <t>[{"paper_result_grade_id":"f919e829-32c9-4422-b969-66c1e4d134d4","proposal":"【日间功能障碍】严重日间功能障碍：存在明显因夜间睡眠不好而引起白天比较严重的困倦、精力不足的现象。","Proposal_a":"【日间功能障碍】严重日间功能障碍：存在明显因夜间睡眠不好而引起白天比较严重的困倦、精力不足的现象。","proposal_h":"【日间功能障碍】严重日间功能障碍：存在明显因夜间睡眠不好而引起白天比较严重的困倦、精力不足的现象。","line_number":7,"dimension_id":"8d1cf668-56ca-450c-b5c4-8aee6059a21a"},{"paper_result_grade_id":"3ecb9e1a-8568-4453-a2b7-2628d6048672","proposal":"【睡眠质量】自我感觉一个月来睡眠质量较差。","Proposal_a":"【睡眠质量】自我感觉一个月来睡眠质量较差。","proposal_h":"【睡眠质量】自我感觉一个月来睡眠质量较差。","line_number":1,"dimension_id":"8394f4fa-1341-4e10-9731-c0b99cc98dcc"},{"paper_result_grade_id":"12becee7-4065-4ce6-aa67-7e452b38c478","proposal":"【入睡时间】一个月来经常有出现入睡困难的情况","Proposal_a":"【入睡时间】一个月来经常有出现入睡困难的情况","proposal_h":"【入睡时间】一个月来经常有出现入睡困难的情况","line_number":2,"dimension_id":"b247648a-c56a-4944-abbe-ff65bc3033de"},{"paper_result_grade_id":"00f883be-977c-453f-8e95-2c905424652c","proposal":"【睡眠时间】夜间睡眠时间严重不足，即近一个月每夜通常实际睡眠时间小于5个小时。","Proposal_a":"【睡眠时间】夜间睡眠时间严重不足，即近一个月每夜通常实际睡眠时间小于5个小时。","proposal_h":"【睡眠时间】夜间睡眠时间严重不足，即近一个月每夜通常实际睡眠时间小于5个小时。","line_number":3,"dimension_id":"0f43019c-bc16-46fd-90c6-86edfc5e26fb"},{"paper_result_grade_id":"bf59b85b-a28d-49b5-aefc-da8c9d8545fc","proposal":"【睡眠效率】睡眠时间与床上时间之比小于0.65，睡眠效率很差。","Proposal_a":"【睡眠效率】睡眠时间与床上时间之比小于0.65，睡眠效率很差。","proposal_h":"【睡眠效率】睡眠时间与床上时间之比小于0.65，睡眠效率很差。","line_number":4,"dimension_id":"3ee98896-a04c-445f-bce3-70351d0a5f45"},{"paper_result_grade_id":"dbfcb625-ae3c-4377-94bb-8166b2e083cd","proposal":"【睡眠障碍】明显睡眠障碍，即有一些原因明显影响了睡眠，具体原因见答卷。","Proposal_a":"【睡眠障碍】明显睡眠障碍，即有一些原因明显影响了睡眠，具体原因见答卷。","proposal_h":"【睡眠障碍】明显睡眠障碍，即有一些原因明显影响了睡眠，具体原因见答卷。","line_number":5,"dimension_id":"cbd43f7f-51c4-4aaa-b5ba-51378103b8be"},{"paper_result_grade_id":"adac408c-0199-4486-900f-dbea8d398ef1","proposal":"【催眠药物】近一个月没有使用药物进行安眠。","Proposal_a":"【催眠药物】近一个月没有使用药物进行安眠。","proposal_h":"【催眠药物】近一个月没有使用药物进行安眠。","line_number":6,"dimension_id":"2b71bd4b-28dd-46d4-8e4a-6e4c9617ffc5"},{"paper_result_grade_id":"dbcc8403-dff8-483c-9222-6b02a4f82ddb","proposal":"存在睡眠问题，总分越高睡眠问题越严重。\u003cbr/\u003e\n以上结果仅供参考，不代表诊断","Proposal_a":"存在睡眠问题，总分越高睡眠问题越严重。\u003cbr/\u003e\n以上结果仅供参考，不代表诊断","proposal_h":"存在睡眠问题，总分越高睡眠问题越严重。\u003cbr/\u003e\n以上结果仅供参考，不代表诊断","push_content":"建议寻求专业医生指导","line_number":8,"dimension_id":"357f44a2-2772-4f95-ba28-96f36cec3185"}]</t>
   </si>
+  <si>
+    <t>朱佳琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +338,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -365,11 +374,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF4431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="14"/>
@@ -983,20 +995,20 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D2">
         <v>512103</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1005,13 +1017,13 @@
         <v>155531</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
       </c>
       <c r="M2">
         <v>3293751</v>
@@ -1020,10 +1032,10 @@
         <v>1953362</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1035,34 +1047,34 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
       </c>
       <c r="W2" s="1">
         <v>45481.6964351852</v>
       </c>
       <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
         <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
       </c>
       <c r="Z2">
         <v>31</v>
       </c>
       <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" t="s">
         <v>45</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
       </c>
       <c r="AE2">
         <v>1000000000362</v>
@@ -1079,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>512101</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1100,13 +1112,13 @@
         <v>155528</v>
       </c>
       <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
       </c>
       <c r="M3">
         <v>3293745</v>
@@ -1115,10 +1127,10 @@
         <v>1953344</v>
       </c>
       <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
         <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1130,34 +1142,34 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W3" s="1">
         <v>45481.663993055598</v>
       </c>
       <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
         <v>54</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
       </c>
       <c r="Z3">
         <v>23</v>
       </c>
       <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
         <v>45</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>46</v>
       </c>
       <c r="AE3">
         <v>1000000000362</v>
@@ -1174,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>512100</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1195,13 +1207,13 @@
         <v>155527</v>
       </c>
       <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
       </c>
       <c r="M4">
         <v>3293744</v>
@@ -1210,10 +1222,10 @@
         <v>1953339</v>
       </c>
       <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
         <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>59</v>
       </c>
       <c r="Q4">
         <v>13</v>
@@ -1225,34 +1237,34 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
         <v>40</v>
       </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="1">
         <v>45481.660937499997</v>
       </c>
       <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
         <v>54</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
       </c>
       <c r="Z4">
         <v>23</v>
       </c>
       <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
         <v>45</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>46</v>
       </c>
       <c r="AE4">
         <v>1000000000362</v>
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>512097</v>
@@ -1278,10 +1290,10 @@
         <v>136401002298082</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1290,13 +1302,13 @@
         <v>155521</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5">
         <v>136401002298082</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5">
         <v>3293733</v>
@@ -1305,10 +1317,10 @@
         <v>1953314</v>
       </c>
       <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
         <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1320,34 +1332,34 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
         <v>40</v>
       </c>
-      <c r="U5" t="s">
-        <v>41</v>
-      </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W5" s="1">
         <v>45481.633541666699</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z5">
         <v>34</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB5">
         <v>136401002298082</v>
       </c>
       <c r="AD5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5">
         <v>1000000000362</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>512095</v>
@@ -1373,10 +1385,10 @@
         <v>3.4082420000303002E+17</v>
       </c>
       <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1385,13 +1397,13 @@
         <v>155519</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>3.4082420000303002E+17</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>3293730</v>
@@ -1400,10 +1412,10 @@
         <v>1953309</v>
       </c>
       <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
         <v>69</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -1415,34 +1427,34 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
         <v>40</v>
       </c>
-      <c r="U6" t="s">
-        <v>41</v>
-      </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W6" s="1">
         <v>45481.627349536997</v>
       </c>
       <c r="X6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
         <v>54</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
       </c>
       <c r="Z6">
         <v>24</v>
       </c>
       <c r="AA6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB6">
         <v>3.4082420000303002E+17</v>
       </c>
       <c r="AD6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE6">
         <v>1000000000362</v>
@@ -1459,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>512088</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1480,13 +1492,13 @@
         <v>155508</v>
       </c>
       <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
         <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
       </c>
       <c r="M7">
         <v>3293711</v>
@@ -1495,10 +1507,10 @@
         <v>1953283</v>
       </c>
       <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
         <v>74</v>
-      </c>
-      <c r="P7" t="s">
-        <v>75</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -1510,34 +1522,34 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
         <v>40</v>
       </c>
-      <c r="U7" t="s">
-        <v>41</v>
-      </c>
       <c r="V7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W7" s="1">
         <v>45481.559386574103</v>
       </c>
       <c r="X7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z7">
         <v>28</v>
       </c>
       <c r="AA7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7">
         <v>1000000000362</v>
@@ -1554,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>512090</v>
@@ -1563,10 +1575,10 @@
         <v>3.6112920070529203E+17</v>
       </c>
       <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1575,13 +1587,13 @@
         <v>155510</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8">
         <v>3.6112920070529203E+17</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8">
         <v>3293713</v>
@@ -1590,10 +1602,10 @@
         <v>1953282</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -1605,34 +1617,34 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
         <v>40</v>
       </c>
-      <c r="U8" t="s">
-        <v>41</v>
-      </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W8" s="1">
         <v>45481.559247685203</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z8">
         <v>17</v>
       </c>
       <c r="AA8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8">
         <v>3.6112920070529203E+17</v>
       </c>
       <c r="AD8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8">
         <v>1000000000362</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>512082</v>
@@ -1658,10 +1670,10 @@
         <v>6017606424</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1670,13 +1682,13 @@
         <v>155499</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>6017606424</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9">
         <v>3293690</v>
@@ -1685,10 +1697,10 @@
         <v>1953250</v>
       </c>
       <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
         <v>82</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -1700,34 +1712,34 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
         <v>40</v>
       </c>
-      <c r="U9" t="s">
-        <v>41</v>
-      </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W9" s="1">
         <v>45481.470555555599</v>
       </c>
       <c r="X9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z9">
         <v>27</v>
       </c>
       <c r="AA9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB9">
         <v>6017606424</v>
       </c>
       <c r="AD9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE9">
         <v>1000000000362</v>
@@ -1744,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>512083</v>
@@ -1753,10 +1765,10 @@
         <v>6.4020220010606003E+17</v>
       </c>
       <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1765,13 +1777,13 @@
         <v>155500</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>6.4020220010606003E+17</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10">
         <v>3293691</v>
@@ -1780,10 +1792,10 @@
         <v>1953218</v>
       </c>
       <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
         <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
       </c>
       <c r="Q10">
         <v>16</v>
@@ -1795,34 +1807,34 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
         <v>40</v>
       </c>
-      <c r="U10" t="s">
-        <v>41</v>
-      </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W10" s="1">
         <v>45481.443495370397</v>
       </c>
       <c r="X10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" t="s">
         <v>54</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>55</v>
       </c>
       <c r="Z10">
         <v>23</v>
       </c>
       <c r="AA10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10">
         <v>6.4020220010606003E+17</v>
       </c>
       <c r="AD10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10">
         <v>1000000000362</v>
@@ -1839,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>512081</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1860,13 +1872,13 @@
         <v>155498</v>
       </c>
       <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
         <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>92</v>
       </c>
       <c r="M11">
         <v>3293689</v>
@@ -1875,10 +1887,10 @@
         <v>1953214</v>
       </c>
       <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
         <v>93</v>
-      </c>
-      <c r="P11" t="s">
-        <v>94</v>
       </c>
       <c r="Q11">
         <v>16</v>
@@ -1890,34 +1902,34 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
         <v>40</v>
       </c>
-      <c r="U11" t="s">
-        <v>41</v>
-      </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W11" s="1">
         <v>45481.442685185197</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z11">
         <v>43</v>
       </c>
       <c r="AA11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11">
         <v>1000000000362</v>
